--- a/reports/overall_expenses.xlsx
+++ b/reports/overall_expenses.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -53,21 +53,51 @@
     <t>Total Amount (Php)</t>
   </si>
   <si>
-    <t>CHIKETING</t>
+    <t>ph9 drinking water</t>
   </si>
   <si>
     <t>Jan 1, 1970</t>
   </si>
   <si>
+    <t>Salaries and Wages</t>
+  </si>
+  <si>
+    <t>Ml.</t>
+  </si>
+  <si>
+    <t>Jomar</t>
+  </si>
+  <si>
+    <t>NANDITO</t>
+  </si>
+  <si>
+    <t>IKAW</t>
+  </si>
+  <si>
     <t>Maintenance and Repairs</t>
   </si>
   <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>31,182.50</t>
+  </si>
+  <si>
+    <t>GAREN</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Jun 18, 2024</t>
+  </si>
+  <si>
     <t>Kilo</t>
   </si>
   <si>
-    <t>Jomar</t>
-  </si>
-  <si>
     <t>253S</t>
   </si>
   <si>
@@ -77,39 +107,6 @@
     <t>5,135.99</t>
   </si>
   <si>
-    <t>ph9 drinking water</t>
-  </si>
-  <si>
-    <t>Salaries and Wages</t>
-  </si>
-  <si>
-    <t>Ml.</t>
-  </si>
-  <si>
-    <t>NANDITO</t>
-  </si>
-  <si>
-    <t>IKAW</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>31,182.50</t>
-  </si>
-  <si>
-    <t>GAREN</t>
-  </si>
-  <si>
-    <t>SAMPLE</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Jun 18, 2024</t>
-  </si>
-  <si>
     <t>NOTHING GONNA CHANGE</t>
   </si>
   <si>
@@ -167,7 +164,7 @@
     <t>14,312.00</t>
   </si>
   <si>
-    <t>expense</t>
+    <t>expenses</t>
   </si>
   <si>
     <t>BILLABLE</t>
@@ -179,10 +176,73 @@
     <t>5,938.00</t>
   </si>
   <si>
+    <t>Jun 22, 2024</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>14,835.00</t>
+  </si>
+  <si>
+    <t>BASO</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>YTT</t>
+  </si>
+  <si>
+    <t>INVENOTRY</t>
+  </si>
+  <si>
+    <t>GAFD</t>
+  </si>
+  <si>
+    <t>1,459.00</t>
+  </si>
+  <si>
+    <t>tttt</t>
+  </si>
+  <si>
+    <t>Grams</t>
+  </si>
+  <si>
+    <t>11,353.00</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>8,488.00</t>
+  </si>
+  <si>
+    <t>ITEM NAME</t>
+  </si>
+  <si>
+    <t>Marketing and Advertising</t>
+  </si>
+  <si>
+    <t>1,486.00</t>
+  </si>
+  <si>
+    <t>ALASKA CREAMY CHICKEN EVAP 250ML</t>
+  </si>
+  <si>
+    <t>PURCHASED ORDER</t>
+  </si>
+  <si>
+    <t>Pouch</t>
+  </si>
+  <si>
+    <t>10-000000106</t>
+  </si>
+  <si>
     <t>Total Expenses</t>
   </si>
   <si>
-    <t>780,965.40</t>
+    <t>816,831.66</t>
   </si>
 </sst>
 </file>
@@ -561,19 +621,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:L16"/>
+      <selection activeCell="A1" sqref="A1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="41.133" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="30.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="32.849" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
@@ -632,13 +692,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>2531</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -646,17 +706,17 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
+      <c r="I2" s="2">
+        <v>2533</v>
       </c>
       <c r="J2" s="2">
-        <v>25.23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>12.23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>125.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>180.75</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -664,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
-        <v>263</v>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2">
-        <v>2533</v>
+        <v>2503.3</v>
       </c>
       <c r="J3" s="2">
-        <v>12.23</v>
+        <v>125.23</v>
       </c>
       <c r="K3" s="2">
         <v>125.0</v>
       </c>
-      <c r="L3" s="2">
-        <v>180.75</v>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -702,37 +762,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+      <c r="D4" s="2">
+        <v>263</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2">
-        <v>2503.3</v>
+        <v>2533</v>
       </c>
       <c r="J4" s="2">
-        <v>125.23</v>
+        <v>12.23</v>
       </c>
       <c r="K4" s="2">
         <v>125.0</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>26</v>
+      <c r="L4" s="2">
+        <v>180.75</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -740,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -749,13 +809,13 @@
         <v>263</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -778,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -787,13 +847,13 @@
         <v>263</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -816,37 +876,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
-        <v>263</v>
+        <v>2531</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2">
-        <v>2533</v>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="2">
-        <v>12.23</v>
-      </c>
-      <c r="K7" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>180.75</v>
+        <v>25.23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -854,37 +914,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2531</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2503.3</v>
       </c>
       <c r="J8" s="2">
-        <v>25.23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>125.23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>125.0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -897,32 +957,32 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
+      <c r="D9" s="2">
+        <v>23355</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2503.3</v>
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J9" s="2">
+        <v>20.23</v>
+      </c>
+      <c r="K9" s="2">
         <v>125.23</v>
       </c>
-      <c r="K9" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
+      <c r="L9" s="2">
+        <v>279.37</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -930,37 +990,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
-        <v>23355</v>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
+        <v>250</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
+      <c r="I10" s="2">
+        <v>2503.3</v>
       </c>
       <c r="J10" s="2">
-        <v>20.23</v>
+        <v>125.23</v>
       </c>
       <c r="K10" s="2">
-        <v>125.23</v>
-      </c>
-      <c r="L10" s="2">
-        <v>279.37</v>
+        <v>125.0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -973,32 +1033,32 @@
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
+      <c r="D11" s="2">
+        <v>263</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2">
-        <v>2503.3</v>
+        <v>2533</v>
       </c>
       <c r="J11" s="2">
-        <v>125.23</v>
+        <v>12.23</v>
       </c>
       <c r="K11" s="2">
         <v>125.0</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>26</v>
+      <c r="L11" s="2">
+        <v>180.75</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1009,34 +1069,34 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
-        <v>263</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
-        <v>25</v>
+        <v>2560</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2533</v>
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J12" s="2">
-        <v>12.23</v>
+        <v>256.23</v>
       </c>
       <c r="K12" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>180.75</v>
+        <v>236.0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1044,37 +1104,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8939</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2">
-        <v>2560</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="I13" s="2">
+        <v>120</v>
       </c>
       <c r="J13" s="2">
-        <v>256.23</v>
+        <v>256.0</v>
       </c>
       <c r="K13" s="2">
-        <v>236.0</v>
+        <v>24.0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1082,37 +1142,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2">
-        <v>8939</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F14" s="2">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" s="2">
-        <v>120</v>
+        <v>2560</v>
       </c>
       <c r="J14" s="2">
-        <v>256.0</v>
+        <v>250.0</v>
       </c>
       <c r="K14" s="2">
-        <v>24.0</v>
+        <v>312.0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1120,60 +1180,364 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="2">
+        <v>34</v>
+      </c>
+      <c r="J15" s="2">
+        <v>345.0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2560</v>
-      </c>
-      <c r="J15" s="2">
-        <v>250.0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>312.0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>55</v>
+      <c r="I16" s="2">
+        <v>2342</v>
+      </c>
+      <c r="J16" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>343</v>
+      </c>
+      <c r="J17" s="2">
+        <v>324.0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>644.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2">
+        <v>345</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="2">
+        <v>43</v>
+      </c>
+      <c r="J18" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>860.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="2">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2">
+        <v>54</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>54</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>216.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="2">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2">
+        <v>334.0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="2">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="2">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2">
+        <v>34</v>
+      </c>
+      <c r="J23" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2">
+        <v>36.45</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>911.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A25:K25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/overall_expenses.xlsx
+++ b/reports/overall_expenses.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>No.</t>
   </si>
@@ -227,9 +227,6 @@
     <t>1,486.00</t>
   </si>
   <si>
-    <t>ALASKA CREAMY CHICKEN EVAP 250ML</t>
-  </si>
-  <si>
     <t>PURCHASED ORDER</t>
   </si>
   <si>
@@ -239,10 +236,31 @@
     <t>10-000000106</t>
   </si>
   <si>
+    <t>CLOUD 9</t>
+  </si>
+  <si>
+    <t>Jun 25, 2024</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>10-000000001</t>
+  </si>
+  <si>
+    <t>10,000.00</t>
+  </si>
+  <si>
+    <t>555 TUNA SPICY PAKSIW</t>
+  </si>
+  <si>
+    <t>30,000.00</t>
+  </si>
+  <si>
     <t>Total Expenses</t>
   </si>
   <si>
-    <t>816,831.66</t>
+    <t>856,831.66</t>
   </si>
 </sst>
 </file>
@@ -621,16 +639,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:L25"/>
+      <selection activeCell="A1" sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="41.133" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="32.849" bestFit="true" customWidth="true" style="0"/>
@@ -1485,27 +1503,25 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2">
         <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2">
         <v>36.45</v>
@@ -1518,26 +1534,98 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.0</v>
+      </c>
       <c r="L25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>75</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A27:K27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/overall_expenses.xlsx
+++ b/reports/overall_expenses.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>No.</t>
   </si>
@@ -53,148 +53,157 @@
     <t>Total Amount (Php)</t>
   </si>
   <si>
-    <t>ph9 drinking water</t>
-  </si>
-  <si>
-    <t>Jan 1, 1970</t>
-  </si>
-  <si>
-    <t>Salaries and Wages</t>
-  </si>
-  <si>
-    <t>Ml.</t>
-  </si>
-  <si>
-    <t>Jomar</t>
-  </si>
-  <si>
-    <t>NANDITO</t>
-  </si>
-  <si>
-    <t>IKAW</t>
-  </si>
-  <si>
-    <t>Maintenance and Repairs</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>31,182.50</t>
-  </si>
-  <si>
-    <t>GAREN</t>
-  </si>
-  <si>
-    <t>SAMPLE</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Jun 18, 2024</t>
+    <t>Casino sanitizer spray</t>
+  </si>
+  <si>
+    <t>Aug 14, 2024</t>
+  </si>
+  <si>
+    <t>PURCHASED ORDER</t>
+  </si>
+  <si>
+    <t>GAISANO SUPERMARKET</t>
+  </si>
+  <si>
+    <t>10-000000001</t>
+  </si>
+  <si>
+    <t>2,000.00</t>
+  </si>
+  <si>
+    <t>Glade</t>
+  </si>
+  <si>
+    <t>2,500.00</t>
+  </si>
+  <si>
+    <t>555 Tuna Adobo</t>
+  </si>
+  <si>
+    <t>Pringles</t>
+  </si>
+  <si>
+    <t>1,250.00</t>
+  </si>
+  <si>
+    <t>Lucky Me Pancit Canton</t>
+  </si>
+  <si>
+    <t>Surf Active Clean</t>
+  </si>
+  <si>
+    <t>555 Tuna paksiw</t>
+  </si>
+  <si>
+    <t>1,000.00</t>
+  </si>
+  <si>
+    <t>Champion twin pack</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>10-000000049</t>
+  </si>
+  <si>
+    <t>130,000.00</t>
+  </si>
+  <si>
+    <t>Cabbage 1KG</t>
+  </si>
+  <si>
+    <t>Aug 15, 2024</t>
   </si>
   <si>
     <t>Kilo</t>
   </si>
   <si>
-    <t>253S</t>
-  </si>
-  <si>
-    <t>1,253.00</t>
-  </si>
-  <si>
-    <t>5,135.99</t>
-  </si>
-  <si>
-    <t>NOTHING GONNA CHANGE</t>
-  </si>
-  <si>
-    <t>ty</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
-  </si>
-  <si>
-    <t>P&amp;G</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>MOUSE</t>
-  </si>
-  <si>
-    <t>LAHI RA DIAY</t>
-  </si>
-  <si>
-    <t>GUITAR</t>
-  </si>
-  <si>
-    <t>Nov 6, 2024</t>
-  </si>
-  <si>
-    <t>KILABIO</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>INKLA</t>
-  </si>
-  <si>
-    <t>655,712.80</t>
-  </si>
-  <si>
-    <t>LARGA</t>
-  </si>
-  <si>
-    <t>Jun 19, 2024</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>1/2 Box</t>
-  </si>
-  <si>
-    <t>GAISANO</t>
-  </si>
-  <si>
-    <t>14,312.00</t>
-  </si>
-  <si>
-    <t>expense</t>
-  </si>
-  <si>
-    <t>BILLABLE</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>5,938.00</t>
-  </si>
-  <si>
-    <t>sanoe</t>
-  </si>
-  <si>
-    <t>Jun 22, 2024</t>
-  </si>
-  <si>
-    <t>Grams</t>
-  </si>
-  <si>
-    <t>asdf205</t>
-  </si>
-  <si>
-    <t>1,458.00</t>
+    <t>THE PRINCE WHOLESALE</t>
+  </si>
+  <si>
+    <t>10-000000050</t>
+  </si>
+  <si>
+    <t>Fortune Cigarette 1 Pack</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>4,600.00</t>
+  </si>
+  <si>
+    <t>Jasmine Rice 5KG</t>
+  </si>
+  <si>
+    <t>6,000.00</t>
+  </si>
+  <si>
+    <t>Supremo Beer 1L</t>
+  </si>
+  <si>
+    <t>3,000.00</t>
+  </si>
+  <si>
+    <t>Sample Product</t>
+  </si>
+  <si>
+    <t>10-000000051</t>
+  </si>
+  <si>
+    <t>20,000.00</t>
+  </si>
+  <si>
+    <t>Table Tennis Table</t>
+  </si>
+  <si>
+    <t>10-000000052</t>
+  </si>
+  <si>
+    <t>1,000,000.00</t>
+  </si>
+  <si>
+    <t>Aug 16, 2024</t>
+  </si>
+  <si>
+    <t>LOSS AND DAMAGE</t>
+  </si>
+  <si>
+    <t>50-000000001</t>
+  </si>
+  <si>
+    <t>Basket Ball</t>
+  </si>
+  <si>
+    <t>10-000000053</t>
+  </si>
+  <si>
+    <t>80,000.00</t>
+  </si>
+  <si>
+    <t>Diapers</t>
+  </si>
+  <si>
+    <t>10-000000054</t>
+  </si>
+  <si>
+    <t>12,000.00</t>
+  </si>
+  <si>
+    <t>Bonakid</t>
+  </si>
+  <si>
+    <t>30,000.00</t>
   </si>
   <si>
     <t>Total Expenses</t>
   </si>
   <si>
-    <t>777,287.41</t>
+    <t>1,296,130.00</t>
   </si>
 </sst>
 </file>
@@ -573,22 +582,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:L16"/>
+      <selection activeCell="A1" sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="30.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20.995" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="19.852" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12.854" bestFit="true" customWidth="true" style="0"/>
@@ -643,32 +652,28 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2">
-        <v>263</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
-        <v>2533</v>
-      </c>
       <c r="J2" s="2">
-        <v>12.23</v>
+        <v>40.0</v>
       </c>
       <c r="K2" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>180.75</v>
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -676,37 +681,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>250</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2503.3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>125.23</v>
-      </c>
-      <c r="K3" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -714,37 +715,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
-        <v>263</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2">
-        <v>2533</v>
-      </c>
       <c r="J4" s="2">
-        <v>12.23</v>
+        <v>17.0</v>
       </c>
       <c r="K4" s="2">
-        <v>125.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" s="2">
-        <v>180.75</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -752,37 +749,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>263</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2">
-        <v>2533</v>
-      </c>
       <c r="J5" s="2">
-        <v>12.23</v>
+        <v>25.0</v>
       </c>
       <c r="K5" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>180.75</v>
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -795,32 +788,28 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
-        <v>263</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2">
-        <v>2533</v>
-      </c>
       <c r="J6" s="2">
-        <v>12.23</v>
+        <v>13.0</v>
       </c>
       <c r="K6" s="2">
-        <v>125.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="2">
-        <v>180.75</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -831,34 +820,30 @@
         <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2531</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>253</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J7" s="2">
-        <v>25.23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>10.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>500.0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -866,37 +851,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>250</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2503.3</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>125.23</v>
+        <v>20.0</v>
       </c>
       <c r="K8" s="2">
-        <v>125.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -904,37 +885,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
-        <v>23355</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
-        <v>20.23</v>
+        <v>15.0</v>
       </c>
       <c r="K9" s="2">
-        <v>125.23</v>
+        <v>0.0</v>
       </c>
       <c r="L9" s="2">
-        <v>279.37</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -942,37 +919,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2503.3</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="J10" s="2">
-        <v>125.23</v>
+        <v>130.0</v>
       </c>
       <c r="K10" s="2">
-        <v>125.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -980,37 +955,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>263</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2533</v>
-      </c>
       <c r="J11" s="2">
-        <v>12.23</v>
+        <v>50.0</v>
       </c>
       <c r="K11" s="2">
-        <v>125.0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>180.75</v>
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1021,34 +994,32 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2">
+        <v>230.0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2560</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2">
-        <v>256.23</v>
-      </c>
-      <c r="K12" s="2">
-        <v>236.0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1056,37 +1027,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8939</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="2">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J13" s="2">
-        <v>256.0</v>
+        <v>300.0</v>
       </c>
       <c r="K13" s="2">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1094,37 +1063,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2560</v>
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J14" s="2">
-        <v>250.0</v>
+        <v>150.0</v>
       </c>
       <c r="K14" s="2">
-        <v>312.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1132,58 +1099,236 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="2">
+        <v>800.0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="2" t="s">
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="2">
-        <v>43.0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
+      <c r="J19" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A21:K21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
